--- a/ramadan-scrapper/output.xlsx
+++ b/ramadan-scrapper/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,15 +823,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Eslam__Waheed</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -878,11 +878,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>aboelsoudJr</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -926,18 +926,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HodaKamal</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -981,18 +981,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hossamsalah33</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1036,18 +1036,18 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Omar_Elaraby</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1091,18 +1091,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ziadasal3</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1153,20 +1153,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RetiredRadwan</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1208,15 +1208,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AnasHagras</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1256,18 +1256,18 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>omar_hany</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1311,18 +1311,18 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anwar-Rizk</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1366,18 +1366,18 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rahmahanafi</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1416,23 +1416,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>reem3liii</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1476,18 +1476,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EmanElsayed21</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1531,22 +1531,22 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Leena_Almekkawy</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1556,12 +1556,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1593,11 +1593,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>omarsalem1012</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1636,23 +1636,23 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mohamed-Ashraf2210</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1686,28 +1686,28 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>yasser22269</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1746,42 +1746,42 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Zidaan</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1813,11 +1813,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mohamedmaherfelony</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1851,28 +1851,28 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAADANYYY</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1901,33 +1901,33 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MaGnsi0</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1956,33 +1956,33 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hdrnjd</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2011,33 +2011,33 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mohamed_Elfar</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2066,52 +2066,52 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BahaaDagher</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2136,32 +2136,32 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>daddy.</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2186,23 +2186,23 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Amr_Elmoogy</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2241,23 +2241,23 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MeMoElprince</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2291,28 +2291,28 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hala_Ibrahim7</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2341,52 +2341,52 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>El_Gemy</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2411,18 +2411,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>badr4996</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2436,12 +2436,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2451,33 +2451,33 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>shimaa_abd.ellah</t>
+          <t>maghrabyJr_</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,42 +2501,42 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MiinaMagdy</t>
+          <t>MuhammadHassan</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2566,32 +2566,32 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mustafa__Mahmoud</t>
+          <t>Belalmoawad</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2611,42 +2611,42 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>salma_Mfayad</t>
+          <t>Mohamed_Ibrahim1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2666,38 +2666,38 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>meahef</t>
+          <t>AmrSalama</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2716,43 +2716,43 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>sohilakaraly958</t>
+          <t>SalmaAhmd</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2776,42 +2776,42 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mostafa_arafa</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2831,38 +2831,38 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pixelise</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2886,22 +2886,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -2913,11 +2913,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ahmed_Sami_Elmoslmany</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2941,22 +2941,22 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2968,11 +2968,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>manar.bahy55</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2996,22 +2996,22 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3023,11 +3023,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mariam84</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3051,22 +3051,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3078,11 +3078,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>menna_elyamany</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3106,17 +3106,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3126,22 +3126,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ahmed-Mosalam33</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3161,38 +3161,38 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eslam_Ezzat</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3206,22 +3206,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3243,11 +3243,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NKT11</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3276,17 +3276,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3298,25 +3298,25 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3BS_AS</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3331,12 +3331,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3353,11 +3353,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mohamed_emad9</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3366,12 +3366,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3381,22 +3381,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3408,15 +3408,15 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Abdelrehman</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3436,17 +3436,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3456,22 +3456,22 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shahd-Elmeniawy</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3481,48 +3481,48 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>M_20x</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3536,32 +3536,32 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3573,11 +3573,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>emymohamed</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3591,32 +3591,32 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3628,11 +3628,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>M7md_Said</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3646,32 +3646,32 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3683,11 +3683,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>engeman015</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3701,32 +3701,32 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3738,11 +3738,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rana-Mohsen</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3756,27 +3756,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3786,22 +3786,22 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yomnakerir</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3811,48 +3811,48 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sara.Sroor</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3866,32 +3866,32 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3903,11 +3903,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>saif_kandil</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3921,32 +3921,32 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -3958,11 +3958,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Nada_Ashraf</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3976,32 +3976,32 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4013,11 +4013,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MohamedSamir93</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4031,32 +4031,32 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4068,11 +4068,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ahmed_Elhosiny</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4086,27 +4086,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4116,22 +4116,22 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Alaa.Ahmed</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4141,48 +4141,48 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sarrah_mamdouh</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4191,12 +4191,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4206,22 +4206,22 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4233,11 +4233,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HebaElsayed1511</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4261,22 +4261,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4288,11 +4288,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>omarhosny102</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4301,17 +4301,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4321,17 +4321,17 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4343,45 +4343,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Rabee_Adel</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4391,47 +4391,47 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MuhammadAl-Halaby</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4446,18 +4446,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mr_Refay</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4471,48 +4471,48 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hellana.asaad</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4521,37 +4521,37 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4563,15 +4563,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Mohamed_sa3d</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4581,32 +4581,32 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4618,15 +4618,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Shorokatwa14</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4636,32 +4636,32 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4673,11 +4673,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>alaa.othman98</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4686,37 +4686,37 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4728,15 +4728,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>shaza.ehab192</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4746,27 +4746,27 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4776,73 +4776,73 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Abdo_ibrahem</t>
+          <t>Eslam__Waheed</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>mennat.allah.kamal</t>
+          <t>aboelsoudJr</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4851,37 +4851,37 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4893,11 +4893,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Asmaa_Mahmoud</t>
+          <t>HodaKamal</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4906,37 +4906,37 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4948,11 +4948,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>melkordi96</t>
+          <t>Hossamsalah33</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4961,37 +4961,37 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5003,11 +5003,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Eman_Ghazy404</t>
+          <t>Omar_Elaraby</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -5016,37 +5016,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5058,11 +5058,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AMMR</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -5071,32 +5071,32 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5106,22 +5106,22 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>YousefShereen</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5131,87 +5131,87 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ismail_mohamed</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5223,11 +5223,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>_Smash</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5241,32 +5241,32 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5278,11 +5278,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>a02040456</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5333,15 +5333,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>gannaosma</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5351,87 +5351,87 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>yasooooabdallah</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5443,11 +5443,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Zewain99</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5461,32 +5461,32 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5498,11 +5498,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AmrElauoty</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5521,27 +5521,27 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5553,15 +5553,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>7ma9a</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5571,87 +5571,87 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Reham_Atta</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5663,11 +5663,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>amiramoustafa576</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5681,32 +5681,32 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5718,11 +5718,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>abrarhosny55</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5741,27 +5741,27 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5773,15 +5773,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MrBous</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5791,87 +5791,87 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aliyayasser</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5883,11 +5883,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Asem25xr</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5901,32 +5901,32 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5938,11 +5938,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>salma_247</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5961,27 +5961,27 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -5993,15 +5993,15 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Alaa_Hosny</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6011,87 +6011,87 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Sohila_Y24</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6103,11 +6103,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>nourhanelnagar1</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -6121,32 +6121,32 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6158,11 +6158,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IAIF</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -6181,27 +6181,27 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6213,15 +6213,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>bx6n</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -6231,87 +6231,87 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Servinas</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6323,15 +6323,15 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EslamSaeed.</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6341,7 +6341,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6351,22 +6351,22 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6378,20 +6378,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sarraaayman855</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6401,27 +6401,27 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6433,11 +6433,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>eman1042002</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -6451,48 +6451,48 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AyaAhmedElwahsh</t>
+          <t>AnasHagras</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -6501,37 +6501,37 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6543,15 +6543,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RawanEmad</t>
+          <t>omar_hany</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6561,32 +6561,32 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -6598,20 +6598,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Peter_torki</t>
+          <t>Anwar-Rizk</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6621,27 +6621,27 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6653,11 +6653,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AntMalk</t>
+          <t>Leena_Almekkawy</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6681,47 +6681,47 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mariem_Osama</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6731,22 +6731,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6763,11 +6763,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hossam_A7Med</t>
+          <t>Leena_Almekkawy</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6791,47 +6791,47 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>basembebo809</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6841,22 +6841,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6873,11 +6873,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>DarkTigerFAF</t>
+          <t>Leena_Almekkawy</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6901,47 +6901,47 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Fouad14</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6951,22 +6951,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6983,11 +6983,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Moustafa</t>
+          <t>Leena_Almekkawy</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -7011,47 +7011,47 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OroubaGhithan</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -7061,22 +7061,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7093,11 +7093,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Omnia_Osman</t>
+          <t>Leena_Almekkawy</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -7121,47 +7121,47 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Abdelhadyelsaid</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -7171,22 +7171,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7195,6 +7195,996 @@
         </is>
       </c>
       <c r="K123" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Leena_Almekkawy</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>30</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>omarsalem1012</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>30</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Leena_Almekkawy</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>30</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>omarsalem1012</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>30</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>25</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>25</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>25</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>25</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>25</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>25</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Zidaan</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>25</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>20</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>20</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>20</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>20</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>20</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>20</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>20</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>❌</t>
         </is>

--- a/ramadan-scrapper/output.xlsx
+++ b/ramadan-scrapper/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1318,20 +1318,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RetiredRadwan</t>
+          <t>ziadasal3</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1373,11 +1373,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>omarsalem1012</t>
+          <t>EmanElsayed21</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1428,11 +1428,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leena_Almekkawy</t>
+          <t>RetiredRadwan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1483,20 +1483,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BahaaDagher</t>
+          <t>omarsalem1012</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1538,55 +1538,1155 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>reem3liii</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>35</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Leena_Almekkawy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mohamed-Ashraf2210</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>yasser22269</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hdrnjd</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BahaaDagher</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Zidaan</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>25</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>❌</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>✅</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>✅</t>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>daddy.</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mohamedmaherfelony</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SAADANYYY</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MaGnsi0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mohamed_Elfar</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Amr_Elmoogy</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>shimaa_abd.ellah</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MeMoElprince</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>El_Gemy</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>badr4996</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MiinaMagdy</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MuhammadAl-Halaby</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>abdomosa99</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mahmoud_Ramadan</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>❌</t>
         </is>
       </c>
     </row>
